--- a/Picarro/synoptics/synoptic_pulltimes.xlsx
+++ b/Picarro/synoptics/synoptic_pulltimes.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/synoptics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3482540-85D1-244C-BAE3-DF246048D74A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BA095E-85F2-E54A-A001-4FE6E0CD4C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="960" windowWidth="10000" windowHeight="14280" activeTab="1" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
   </bookViews>
   <sheets>
     <sheet name="8-2" sheetId="1" r:id="rId1"/>
     <sheet name="8-13" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Sample Day</t>
   </si>
@@ -106,14 +106,21 @@
   </si>
   <si>
     <t>Syn 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 second time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">same </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -162,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -177,6 +184,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,15 +871,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD34204-A69E-2240-AE4D-F9CE023BD59B}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -896,8 +908,11 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -923,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -943,10 +958,20 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="14">
+        <v>0.78596064814814814</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.78628472222222223</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.78596064814814814</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.78628472222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -966,10 +991,20 @@
         <v>0.80138888888888882</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="15">
+        <v>0.79989583333333336</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.80079861111111106</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.80034722222222221</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.81251157407407415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -989,10 +1024,17 @@
         <v>0.80624999999999991</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="15">
+        <v>0.80564814814814811</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.8068981481481482</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1012,10 +1054,14 @@
         <v>0.81111111111111112</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="15">
+        <v>0.80967592592592597</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.8111342592592593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1035,10 +1081,14 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="15">
+        <v>0.8147106481481482</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.81600694444444455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1058,15 +1108,19 @@
         <v>0.8208333333333333</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="15">
+        <v>0.82030092592592585</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.82119212962962962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="11">
-        <v>0.65416666666666667</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="C10" s="12">
         <v>0.65902777777777777</v>
@@ -1074,17 +1128,21 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>0.8208333333333333</v>
+        <v>0.82430555555555551</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>0.8256944444444444</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="14">
+        <v>0.82530092592592597</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.8262152777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1104,10 +1162,14 @@
         <v>0.83055555555555549</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="15">
+        <v>0.82962962962962961</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.83106481481481476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1127,10 +1189,14 @@
         <v>0.8354166666666667</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="15">
+        <v>0.83443287037037039</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.83524305555555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1150,10 +1216,14 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="15">
+        <v>0.8393518518518519</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.84011574074074069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1173,10 +1243,14 @@
         <v>0.84513888888888888</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="15">
+        <v>0.84479166666666661</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.84600694444444446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1194,8 +1268,14 @@
         <f t="shared" si="0"/>
         <v>0.85069444444444442</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="16">
+        <v>0.84990740740740733</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.85092592592592586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>

--- a/Picarro/synoptics/synoptic_pulltimes.xlsx
+++ b/Picarro/synoptics/synoptic_pulltimes.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/synoptics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BA095E-85F2-E54A-A001-4FE6E0CD4C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383EBE9-F671-C546-BFF5-D2904CA6DDEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
+    <workbookView xWindow="10200" yWindow="540" windowWidth="20260" windowHeight="14740" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
   </bookViews>
   <sheets>
-    <sheet name="8-2" sheetId="1" r:id="rId1"/>
-    <sheet name="8-13" sheetId="2" r:id="rId2"/>
+    <sheet name="7-18" sheetId="4" r:id="rId1"/>
+    <sheet name="8-2" sheetId="1" r:id="rId2"/>
+    <sheet name="8-9" sheetId="3" r:id="rId3"/>
+    <sheet name="8-13" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Sample Day</t>
   </si>
@@ -112,6 +114,27 @@
   </si>
   <si>
     <t xml:space="preserve">same </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chloe </t>
+  </si>
+  <si>
+    <t>Ecu 3</t>
+  </si>
+  <si>
+    <t>Ecu 4</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>chloe</t>
+  </si>
+  <si>
+    <t>Syn 34</t>
   </si>
 </sst>
 </file>
@@ -120,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -131,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,10 +213,11 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,12 +531,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14727AB-5ECD-BC43-8F09-674B0089D09A}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43664</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <f>B4+4/24</f>
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F4" s="11">
+        <f>C4+4/24</f>
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:F15" si="0">B5+4/24</f>
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67152777777777772</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67777777777777781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED28E35-990A-2B43-9EE6-9C0BC160AF8F}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:I17"/>
+      <selection pane="topRight" sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,12 +1245,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6EB14-B6E9-CD46-B4B4-4F2C0DAA361E}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43683</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43686</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:F13" si="0">B4+4/24</f>
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
+        <f>B7+4/24</f>
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="F7" s="11">
+        <f>C7+4/24</f>
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
+        <f t="shared" ref="E14" si="1">B14+4/24</f>
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14" si="2">C14+4/24</f>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD34204-A69E-2240-AE4D-F9CE023BD59B}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/Picarro/synoptics/synoptic_pulltimes.xlsx
+++ b/Picarro/synoptics/synoptic_pulltimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/synoptics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383EBE9-F671-C546-BFF5-D2904CA6DDEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00877AF2-DF3B-0E4F-8BB8-0E26898F305B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="540" windowWidth="20260" windowHeight="14740" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
   </bookViews>
   <sheets>
     <sheet name="7-18" sheetId="4" r:id="rId1"/>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14727AB-5ECD-BC43-8F09-674B0089D09A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -880,9 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED28E35-990A-2B43-9EE6-9C0BC160AF8F}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:I16"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,8 +968,12 @@
         <f>C4+4/24</f>
         <v>0.72291666666666665</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="14">
+        <v>0.72167824074074083</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.72346064814814814</v>
+      </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -993,8 +997,12 @@
         <f t="shared" si="0"/>
         <v>0.72638888888888886</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="15">
+        <v>0.72564814814814815</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.7273842592592592</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1014,8 +1022,12 @@
         <f t="shared" si="0"/>
         <v>0.73124999999999996</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="15">
+        <v>0.73003472222222221</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.73201388888888896</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1039,8 +1051,12 @@
         <f t="shared" si="0"/>
         <v>0.73541666666666661</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="15">
+        <v>0.7345949074074074</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.7361805555555555</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1064,8 +1080,12 @@
         <f t="shared" si="0"/>
         <v>0.73819444444444438</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="15">
+        <v>0.73784722222222221</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.73888888888888893</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1089,8 +1109,12 @@
         <f t="shared" si="0"/>
         <v>0.7416666666666667</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="15">
+        <v>0.74063657407407402</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.74217592592592585</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1114,8 +1138,12 @@
         <f t="shared" si="0"/>
         <v>0.7451388888888888</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="14">
+        <v>0.74484953703703705</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.74601851851851853</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1139,8 +1167,12 @@
         <f t="shared" si="0"/>
         <v>0.74791666666666656</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="15">
+        <v>0.74747685185185186</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.74792824074074071</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1164,8 +1196,12 @@
         <f t="shared" si="0"/>
         <v>0.75208333333333333</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="15">
+        <v>0.75105324074074076</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.75312499999999993</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1189,8 +1225,12 @@
         <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="15">
+        <v>0.75501157407407404</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.75646990740740738</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1214,8 +1254,12 @@
         <f t="shared" si="0"/>
         <v>0.75972222222222219</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="15">
+        <v>0.75962962962962965</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.76126157407407413</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1238,6 +1282,12 @@
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0.7631944444444444</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.7632175925925927</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.76417824074074081</v>
       </c>
     </row>
   </sheetData>

--- a/Picarro/synoptics/synoptic_pulltimes.xlsx
+++ b/Picarro/synoptics/synoptic_pulltimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/synoptics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00877AF2-DF3B-0E4F-8BB8-0E26898F305B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637FB791-97BF-044D-A0B7-0CD9CA48F3FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
   </bookViews>
   <sheets>
     <sheet name="7-18" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>Sample Day</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Ecu 4</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -135,6 +132,15 @@
   </si>
   <si>
     <t>Syn 34</t>
+  </si>
+  <si>
+    <t>bad/leaked bag</t>
+  </si>
+  <si>
+    <t>water in bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a lot of variaton? </t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -557,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5">
         <v>0.5083333333333333</v>
@@ -880,9 +886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED28E35-990A-2B43-9EE6-9C0BC160AF8F}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,20 +1303,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6EB14-B6E9-CD46-B4B4-4F2C0DAA361E}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="186" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>43683</v>
@@ -1320,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1383,10 +1392,14 @@
         <v>0.59930555555555554</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="15">
+        <v>0.59769675925925925</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.59978009259259257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1406,10 +1419,14 @@
         <v>0.60277777777777775</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="15">
+        <v>0.60165509259259264</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.60343749999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1429,10 +1446,14 @@
         <v>0.60972222222222217</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="15">
+        <v>0.60905092592592591</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.61078703703703707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1452,10 +1473,14 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="14">
+        <v>0.61187500000000006</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.61358796296296292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1475,10 +1500,14 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="15">
+        <v>0.61541666666666661</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.6162037037037037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1498,10 +1527,14 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="15">
+        <v>0.61792824074074071</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.61881944444444448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1521,10 +1554,14 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="15">
+        <v>0.62076388888888889</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.62186342592592592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1534,7 +1571,9 @@
       <c r="C11" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0.62291666666666667</v>
@@ -1544,10 +1583,14 @@
         <v>0.625</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="15">
+        <v>0.62297453703703709</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.62365740740740738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1567,10 +1610,17 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="15">
+        <v>0.62975694444444441</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.63210648148148152</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1590,10 +1640,14 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="15">
+        <v>0.63418981481481485</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.63511574074074073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1612,9 +1666,11 @@
         <f t="shared" ref="F14" si="2">C14+4/24</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Picarro/synoptics/synoptic_pulltimes.xlsx
+++ b/Picarro/synoptics/synoptic_pulltimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/synoptics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637FB791-97BF-044D-A0B7-0CD9CA48F3FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B72BB1-3592-444A-A6DE-6C8F53C6F2FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
   </bookViews>
   <sheets>
     <sheet name="7-18" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>Sample Day</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Ecu 4</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>chloe</t>
@@ -540,8 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14727AB-5ECD-BC43-8F09-674B0089D09A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="256" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,15 +553,15 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
+      <c r="B2" s="1">
+        <v>43665</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -621,8 +619,12 @@
         <v>0.61736111111111114</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="14">
+        <v>0.61572916666666666</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.61778935185185191</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -644,8 +646,12 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="15">
+        <v>0.62031249999999993</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.62237268518518518</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -667,8 +673,12 @@
         <v>0.62708333333333333</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="15">
+        <v>0.62603009259259257</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.62755787037037036</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -690,8 +700,12 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="15">
+        <v>0.63033564814814813</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.63215277777777779</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -713,8 +727,12 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="15">
+        <v>0.63587962962962963</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.63760416666666664</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -736,8 +754,12 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="15">
+        <v>0.64023148148148146</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.64192129629629624</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -759,8 +781,12 @@
         <v>0.64722222222222225</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="14">
+        <v>0.64577546296296295</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.64768518518518514</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -782,8 +808,12 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="15">
+        <v>0.65085648148148145</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.65178240740740734</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -805,8 +835,12 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="15">
+        <v>0.66038194444444442</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.66241898148148148</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -828,8 +862,12 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="15">
+        <v>0.66472222222222221</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.66692129629629626</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -851,12 +889,16 @@
         <v>0.67152777777777772</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="15">
+        <v>0.66975694444444445</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.67156249999999995</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5">
         <v>0.5083333333333333</v>
@@ -871,6 +913,12 @@
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0.67777777777777781</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.67650462962962965</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.67885416666666665</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1305,9 +1353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6EB14-B6E9-CD46-B4B4-4F2C0DAA361E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="186" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,7 +1620,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
@@ -1617,7 +1665,7 @@
         <v>0.63210648148148152</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1667,7 +1715,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>

--- a/Picarro/synoptics/synoptic_pulltimes.xlsx
+++ b/Picarro/synoptics/synoptic_pulltimes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mraisle/Documents/Ecuador/Picarro/synoptics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B72BB1-3592-444A-A6DE-6C8F53C6F2FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A0A92-5300-7D4B-BF3A-633B1D0E50F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{2F3646B7-7E25-B148-9FA5-ECCDFCC7E59E}"/>
   </bookViews>
   <sheets>
-    <sheet name="7-18" sheetId="4" r:id="rId1"/>
+    <sheet name="7-19" sheetId="4" r:id="rId1"/>
     <sheet name="8-2" sheetId="1" r:id="rId2"/>
     <sheet name="8-9" sheetId="3" r:id="rId3"/>
     <sheet name="8-13" sheetId="2" r:id="rId4"/>
@@ -537,9 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14727AB-5ECD-BC43-8F09-674B0089D09A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="256" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1353,9 +1353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6EB14-B6E9-CD46-B4B4-4F2C0DAA361E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,7 +1730,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
